--- a/data files/Modified Files/2024-11-01/order_PIONEER_2024-11-01.xlsx
+++ b/data files/Modified Files/2024-11-01/order_PIONEER_2024-11-01.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5736" yWindow="0" windowWidth="17304" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,12 +53,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <i val="1"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <i val="1"/>
       <sz val="8.5"/>
     </font>
     <font>
@@ -115,6 +109,12 @@
       <family val="2"/>
       <i val="1"/>
       <sz val="12"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <i val="1"/>
+      <sz val="16"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -167,48 +167,50 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0" hidden="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -534,8 +536,8 @@
   </sheetPr>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -545,7 +547,7 @@
     <col width="8.4" customWidth="1" min="3" max="3"/>
     <col width="7.199999999999999" customWidth="1" min="4" max="4"/>
     <col width="42" customWidth="1" min="5" max="5"/>
-    <col width="8.4" customWidth="1" min="6" max="6"/>
+    <col width="7.199999999999999" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -563,14 +565,14 @@
       <c r="G1" s="4" t="n"/>
     </row>
     <row r="2" ht="21.6" customHeight="1" thickBot="1">
-      <c r="A2" s="21" t="inlineStr">
+      <c r="A2" s="22" t="inlineStr">
         <is>
           <t>Nawabi Road, Haldwani-263 139</t>
         </is>
       </c>
-      <c r="B2" s="5" t="n"/>
-      <c r="C2" s="5" t="n"/>
-      <c r="D2" s="5" t="n"/>
+      <c r="B2" s="21" t="n"/>
+      <c r="C2" s="23" t="n"/>
+      <c r="D2" s="23" t="n"/>
       <c r="E2" s="4" t="n"/>
       <c r="F2" s="3" t="n"/>
       <c r="G2" s="6" t="inlineStr">
@@ -584,8 +586,8 @@
       <c r="B3" s="3" t="n"/>
       <c r="C3" s="3" t="n"/>
       <c r="D3" s="3" t="n"/>
-      <c r="E3" s="5" t="n"/>
-      <c r="F3" s="5" t="n"/>
+      <c r="E3" s="23" t="n"/>
+      <c r="F3" s="23" t="n"/>
       <c r="G3" s="7" t="n"/>
     </row>
     <row r="4">
@@ -723,226 +725,200 @@
     </row>
     <row r="14" ht="15.6" customHeight="1"/>
     <row r="15">
-      <c r="A15" s="22" t="inlineStr">
+      <c r="A15" s="24" t="inlineStr">
         <is>
           <t>SI.</t>
         </is>
       </c>
-      <c r="B15" s="22" t="inlineStr">
+      <c r="B15" s="24" t="inlineStr">
         <is>
           <t>Item Name</t>
         </is>
       </c>
-      <c r="C15" s="22" t="inlineStr">
+      <c r="C15" s="24" t="inlineStr">
         <is>
           <t>Qty.</t>
         </is>
       </c>
-      <c r="D15" s="22" t="inlineStr">
+      <c r="D15" s="24" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="E15" s="22" t="inlineStr">
+      <c r="E15" s="24" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F15" s="22" t="inlineStr"/>
-      <c r="G15" s="22" t="inlineStr"/>
     </row>
     <row r="16"/>
     <row r="17">
-      <c r="A17" s="23" t="n">
+      <c r="A17" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="B17" s="23" t="inlineStr">
+      <c r="B17" s="25" t="inlineStr">
         <is>
           <t>3-Ply Ear Loop Mask with Melblown Filter</t>
         </is>
       </c>
-      <c r="C17" s="23" t="n"/>
-      <c r="D17" s="23" t="n"/>
-      <c r="E17" s="23" t="n"/>
-      <c r="F17" s="23" t="n"/>
-      <c r="G17" s="23" t="n"/>
+      <c r="C17" s="25" t="n"/>
+      <c r="D17" s="25" t="n"/>
+      <c r="E17" s="25" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="23" t="n">
+      <c r="A18" s="25" t="n">
         <v/>
       </c>
-      <c r="B18" s="24" t="inlineStr">
+      <c r="B18" s="26" t="inlineStr">
         <is>
           <t>BFE-95%, 80gsm, Colour: Blue</t>
         </is>
       </c>
-      <c r="C18" s="23" t="inlineStr">
+      <c r="C18" s="25" t="inlineStr">
         <is>
           <t>30000</t>
         </is>
       </c>
-      <c r="D18" s="23" t="inlineStr">
+      <c r="D18" s="25" t="inlineStr">
         <is>
           <t>pcs</t>
         </is>
       </c>
-      <c r="E18" s="23" t="inlineStr">
+      <c r="E18" s="25" t="inlineStr">
         <is>
           <t>(100 pcs poly pack) (CARTAN Pack)</t>
         </is>
       </c>
-      <c r="F18" s="23" t="n"/>
-      <c r="G18" s="23" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="23" t="n">
+      <c r="A19" s="25" t="n">
         <v/>
       </c>
-      <c r="B19" s="24" t="inlineStr">
+      <c r="B19" s="26" t="inlineStr">
         <is>
           <t>BFE-95%, 80gsm, Colour: Black</t>
         </is>
       </c>
-      <c r="C19" s="23" t="inlineStr">
+      <c r="C19" s="25" t="inlineStr">
         <is>
           <t>6000</t>
         </is>
       </c>
-      <c r="D19" s="23" t="inlineStr">
+      <c r="D19" s="25" t="inlineStr">
         <is>
           <t>pcs</t>
         </is>
       </c>
-      <c r="E19" s="23" t="inlineStr">
+      <c r="E19" s="25" t="inlineStr">
         <is>
           <t>(100 pcs poly pack) (CARTAN Pack)</t>
         </is>
       </c>
-      <c r="F19" s="23" t="n"/>
-      <c r="G19" s="23" t="inlineStr">
-        <is>
-          <t>test2</t>
-        </is>
-      </c>
     </row>
     <row r="20">
-      <c r="A20" s="23" t="n">
+      <c r="A20" s="25" t="n">
         <v/>
       </c>
-      <c r="B20" s="24" t="inlineStr">
+      <c r="B20" s="26" t="inlineStr">
         <is>
           <t>BFE-95%, 80gsm, Colour: WHITE</t>
         </is>
       </c>
-      <c r="C20" s="23" t="inlineStr">
+      <c r="C20" s="25" t="inlineStr">
         <is>
           <t>6000</t>
         </is>
       </c>
-      <c r="D20" s="23" t="inlineStr">
+      <c r="D20" s="25" t="inlineStr">
         <is>
           <t>pcs</t>
         </is>
       </c>
-      <c r="E20" s="23" t="inlineStr">
+      <c r="E20" s="25" t="inlineStr">
         <is>
           <t>(100 pcs poly pack) (CARTAN Pack)</t>
         </is>
       </c>
-      <c r="F20" s="23" t="n"/>
-      <c r="G20" s="23" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="23" t="n">
+      <c r="A21" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="B21" s="23" t="inlineStr">
+      <c r="B21" s="25" t="inlineStr">
         <is>
           <t>3-Ply Tie-on-Mask with Melblown Filter</t>
         </is>
       </c>
-      <c r="C21" s="23" t="inlineStr">
+      <c r="C21" s="25" t="inlineStr">
         <is>
           <t>4500</t>
         </is>
       </c>
-      <c r="D21" s="23" t="inlineStr">
+      <c r="D21" s="25" t="inlineStr">
         <is>
           <t>pcs</t>
         </is>
       </c>
-      <c r="E21" s="23" t="inlineStr">
+      <c r="E21" s="25" t="inlineStr">
         <is>
           <t>(100 pcs poly pack) (CARTAN Pack)</t>
         </is>
       </c>
-      <c r="F21" s="23" t="n"/>
-      <c r="G21" s="23" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="23" t="n">
+      <c r="A22" s="25" t="n">
         <v/>
       </c>
-      <c r="B22" s="24" t="inlineStr">
+      <c r="B22" s="26" t="inlineStr">
         <is>
           <t>BFE-95%, 80gsm, Colour: White</t>
         </is>
       </c>
-      <c r="C22" s="23" t="n"/>
-      <c r="D22" s="23" t="n"/>
-      <c r="E22" s="23" t="n"/>
-      <c r="F22" s="23" t="inlineStr">
-        <is>
-          <t>test1</t>
-        </is>
-      </c>
-      <c r="G22" s="23" t="n"/>
+      <c r="C22" s="25" t="n"/>
+      <c r="D22" s="25" t="n"/>
+      <c r="E22" s="25" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="23" t="n">
+      <c r="A23" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="B23" s="23" t="inlineStr">
+      <c r="B23" s="25" t="inlineStr">
         <is>
           <t>Bouffant Cap-21" Regular Plus Quality</t>
         </is>
       </c>
-      <c r="C23" s="23" t="inlineStr">
+      <c r="C23" s="25" t="inlineStr">
         <is>
           <t>5000</t>
         </is>
       </c>
-      <c r="D23" s="23" t="inlineStr">
+      <c r="D23" s="25" t="inlineStr">
         <is>
           <t>pcs</t>
         </is>
       </c>
-      <c r="E23" s="23" t="inlineStr">
+      <c r="E23" s="25" t="inlineStr">
         <is>
           <t>(100 pcs poly pack) (CARTAN Pack)</t>
         </is>
       </c>
-      <c r="F23" s="23" t="n"/>
-      <c r="G23" s="23" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="23" t="n">
+      <c r="A24" s="25" t="n">
         <v/>
       </c>
-      <c r="B24" s="24" t="inlineStr">
+      <c r="B24" s="26" t="inlineStr">
         <is>
           <t>Colour: Blue</t>
         </is>
       </c>
-      <c r="C24" s="23" t="n"/>
-      <c r="D24" s="23" t="n"/>
-      <c r="E24" s="23" t="n"/>
-      <c r="F24" s="23" t="n"/>
-      <c r="G24" s="23" t="n"/>
+      <c r="C24" s="25" t="n"/>
+      <c r="D24" s="25" t="n"/>
+      <c r="E24" s="25" t="n"/>
     </row>
     <row r="25"/>
     <row r="26">
-      <c r="A26" s="25" t="inlineStr">
+      <c r="A26" s="27" t="inlineStr">
         <is>
           <t>Thanking You.</t>
         </is>
